--- a/data/3D Simple obstacles/study labels.xlsx
+++ b/data/3D Simple obstacles/study labels.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitHub repo\dissertationData\3D Simple obstacles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitHub repo\dissertationData\data\3D Simple obstacles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500BA3C8-5EDA-4E3C-923A-83BCAC31AD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C003357-C2D8-4E0B-A9EB-AE126A2D1A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="9">
   <si>
     <t>Number</t>
   </si>
@@ -46,13 +46,19 @@
   </si>
   <si>
     <t>Collision avoidance</t>
+  </si>
+  <si>
+    <t>Obstacle avoidance</t>
+  </si>
+  <si>
+    <t>1.	Fu, X.; Zhi, C.; Wu, D. Obstacle avoidance and collision avoidance of UAV swarm based on improved VFH algorithm and information sharing strategy. Computers &amp; Industrial Engineering 2023, 186, http://doi.org/10.1016/j.cie.2023.109761.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +67,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -87,9 +100,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,32 +387,33 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.06640625" style="1"/>
-    <col min="2" max="2" width="9.1328125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.73046875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="176.9296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.86328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="181.796875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -423,8 +438,17 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="B3" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">

--- a/data/3D Simple obstacles/study labels.xlsx
+++ b/data/3D Simple obstacles/study labels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitHub repo\dissertationData\data\3D Simple obstacles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C003357-C2D8-4E0B-A9EB-AE126A2D1A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2768549E-9D8E-4A89-BC6C-389725F81D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="10">
   <si>
     <t>Number</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>1.	Fu, X.; Zhi, C.; Wu, D. Obstacle avoidance and collision avoidance of UAV swarm based on improved VFH algorithm and information sharing strategy. Computers &amp; Industrial Engineering 2023, 186, http://doi.org/10.1016/j.cie.2023.109761.</t>
+  </si>
+  <si>
+    <t>1.	Bloch, A.; Camarinha, M.; Colombo, L.J. Dynamic interpolation for obstacle avoidance on Riemannian manifolds. International Journal of Control 2019, 94, 588-600, http://doi.org/10.1080/00207179.2019.1603400.</t>
   </si>
 </sst>
 </file>
@@ -387,7 +390,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -396,7 +399,7 @@
     <col min="2" max="2" width="5.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="181.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="201" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
@@ -455,8 +458,17 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
+      <c r="B4" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">

--- a/data/3D Simple obstacles/study labels.xlsx
+++ b/data/3D Simple obstacles/study labels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitHub repo\dissertationData\data\3D Simple obstacles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2768549E-9D8E-4A89-BC6C-389725F81D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1784E5-FC3E-4A19-A2AE-76CE47C9D67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
   <si>
     <t>Number</t>
   </si>
@@ -51,17 +51,17 @@
     <t>Obstacle avoidance</t>
   </si>
   <si>
-    <t>1.	Fu, X.; Zhi, C.; Wu, D. Obstacle avoidance and collision avoidance of UAV swarm based on improved VFH algorithm and information sharing strategy. Computers &amp; Industrial Engineering 2023, 186, http://doi.org/10.1016/j.cie.2023.109761.</t>
-  </si>
-  <si>
-    <t>1.	Bloch, A.; Camarinha, M.; Colombo, L.J. Dynamic interpolation for obstacle avoidance on Riemannian manifolds. International Journal of Control 2019, 94, 588-600, http://doi.org/10.1080/00207179.2019.1603400.</t>
+    <t>Fu, X.; Zhi, C.; Wu, D. Obstacle avoidance and collision avoidance of UAV swarm based on improved VFH algorithm and information sharing strategy. Computers &amp; Industrial Engineering 2023, 186, http://doi.org/10.1016/j.cie.2023.109761.</t>
+  </si>
+  <si>
+    <t>Bloch, A.; Camarinha, M.; Colombo, L.J. Dynamic interpolation for obstacle avoidance on Riemannian manifolds. International Journal of Control 2019, 94, 588-600, http://doi.org/10.1080/00207179.2019.1603400.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,13 +82,40 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -100,15 +127,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -387,36 +419,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="7.59765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.86328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.06640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="201" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -430,7 +462,7 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -447,7 +479,7 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -464,7 +496,7 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -543,151 +575,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{6074CB9F-14A6-4AFD-822D-803F314B82E0}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{4B1592DE-A2A9-4540-B55A-DBB84AC7F92D}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{E2B1E0FE-1E63-44CF-AFDF-834E6A69EAAC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>